--- a/biology/Botanique/Haworthia/Haworthia.xlsx
+++ b/biology/Botanique/Haworthia/Haworthia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Haworthia comprend des plantes succulentes de la famille des Liliacées, selon la classification classique, ou des Asphodélacées, selon la classification phylogénétique. Originaires d'Afrique du Sud, de Namibie, du Mozambique, du Lesotho et du Swaziland [1], ces plantes ont été découvertes par Henri Auguste Duval (1777-1814) en 1809. Le nom du genre est inspiré du botaniste anglais Adrian Hardy Haworth (1767-1833), grand collectionneur de plantes succulentes. Le genre Haworthia est apparenté aux Aloès et aux Gasteria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Haworthia comprend des plantes succulentes de la famille des Liliacées, selon la classification classique, ou des Asphodélacées, selon la classification phylogénétique. Originaires d'Afrique du Sud, de Namibie, du Mozambique, du Lesotho et du Swaziland , ces plantes ont été découvertes par Henri Auguste Duval (1777-1814) en 1809. Le nom du genre est inspiré du botaniste anglais Adrian Hardy Haworth (1767-1833), grand collectionneur de plantes succulentes. Le genre Haworthia est apparenté aux Aloès et aux Gasteria.
 Haworthia désigne également l'un des trois sous-genres du genre Haworthia.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haworthia est une plante généralement vivace, herbacée et persistante. C'est aussi, en général, une plante acaule dont les feuilles sont disposées en rosette[1]. Les rosettes sont non épineuses et assez denses.
-Les feuilles sont de formes diverses, généralement succulentes, parfois aplaties (Haworthia truncata), parfois translucides (Haworthia cymbiformis) ou marquées par des lignes ou des excroissances blanches[1].
-Les fleurs sont disposées en racème. Elles comptent 6 tépales rassemblés à la base. Généralement de couleur blanche, elles peuvent être teintées de vert, de jaune ou de rose, avec des veines plus foncées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haworthia est une plante généralement vivace, herbacée et persistante. C'est aussi, en général, une plante acaule dont les feuilles sont disposées en rosette. Les rosettes sont non épineuses et assez denses.
+Les feuilles sont de formes diverses, généralement succulentes, parfois aplaties (Haworthia truncata), parfois translucides (Haworthia cymbiformis) ou marquées par des lignes ou des excroissances blanches.
+Les fleurs sont disposées en racème. Elles comptent 6 tépales rassemblés à la base. Généralement de couleur blanche, elles peuvent être teintées de vert, de jaune ou de rose, avec des veines plus foncées.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour la plupart des espèces, Haworthia est de culture facile. En effet, ce genre supporte assez bien les endroits ombragés, les fenêtres, terrasses… et tolérera quelques erreurs de culture comme les manques d'arrosage. Elle est donc conseillée pour les débutants, d'autant plus qu'elle est assez facile à trouver en jardinerie.
 Haworthia s'accommode d'une exposition légère ou prononcée[pas clair], mais supporte mal le soleil direct.
@@ -581,7 +597,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce genre est composé de 70 à 90 espèces selon les classifications. Il est divisé en 3 sous-genres, définis en fonction de la fleur : Haworthia, Hexangularis et Robustipedunculares. Voici la liste établie par Bruce Bayer dans Haworthia revisited (voir la section Publications) complétée par différentes sources et classée par ordre alphabétique. Les synonymes les plus courants sont entre parenthèses précédés du signe "=" et les hybrides d'origine horticole (non naturel) sont marqués par des guillemets simples (exemple : Haworthia 'Sampaiana') :
 À classer :
